--- a/Arm Motor Calc.xlsx
+++ b/Arm Motor Calc.xlsx
@@ -24,47 +24,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>pipe diameter</t>
-  </si>
-  <si>
-    <t>ball diameter</t>
-  </si>
-  <si>
-    <t>ball mass</t>
-  </si>
-  <si>
-    <t>arm angle</t>
-  </si>
-  <si>
-    <t>arm length</t>
-  </si>
-  <si>
-    <t>ball intake acceleration</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>pipe force angle</t>
-  </si>
-  <si>
-    <t>ball moi pipe</t>
-  </si>
-  <si>
-    <t>rec arm force</t>
-  </si>
-  <si>
-    <t>rec arm motor torque</t>
+    <t>Pipe</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Diameter (cm)</t>
+  </si>
+  <si>
+    <t>Radius (cm)</t>
+  </si>
+  <si>
+    <t>Height (cm)</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Mass (g)</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>Angles</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Deg =&gt;</t>
+  </si>
+  <si>
+    <t>Forces</t>
+  </si>
+  <si>
+    <t>Fg</t>
+  </si>
+  <si>
+    <t>Fa</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>Arm Length</t>
+  </si>
+  <si>
+    <t>Moment of Inertia</t>
+  </si>
+  <si>
+    <t>Ball-Rod Configuration</t>
+  </si>
+  <si>
+    <t>Arm Weight</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Torque Required</t>
+  </si>
+  <si>
+    <t>Ball Acceleration</t>
+  </si>
+  <si>
+    <t>RPM Required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,8 +148,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,110 +431,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>B2/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f>B3/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>16.864999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>1.1422371226000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>B6/2</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2.7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>0.25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>-9.81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f xml:space="preserve"> ACOS((B1/2)/(B2/2))</f>
-        <v>1.266103672779499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <f>B7/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="D7">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <f>7*B3*(B2/2)^2/5</f>
-        <v>1.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <f>ACOS(C2/C6)</f>
+        <v>0.72273424781341555</v>
+      </c>
+      <c r="C10">
+        <f>PI()/6</f>
+        <v>0.52359877559829882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <f>ACOS(C3/C7)</f>
+        <v>1.3694384060045657</v>
+      </c>
+      <c r="C11">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <f>B6*SIN(PI()-PI()/2-B9) * (B2/2) + B7 * SIN((PI()-PI()/2-B9)) * (B2/2)</f>
-        <v>-0.13215000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <f>B12*B5</f>
-        <v>-1.9822500000000003E-2</v>
+        <f>(B10+B11)/2</f>
+        <v>1.0460863269089906</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <f>DEGREES(B12)</f>
+        <v>59.936331538227684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f>-K2*(D7/1000)</f>
+        <v>-6.3765000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f>-(C3*B15*COS(B11))/(C3*COS(B11-B12))</f>
+        <v>1.3450039769478357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <f>1/3*(K4*K3/100*K3/100)+2/5*(D7/1000*C7/100*C7/100)+D7*(K3/100+C7/100)^2</f>
+        <v>56.064601607576996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <f>0.25/2/PI()/K3*B20+B16*K3</f>
+        <v>22.815762431117385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <f>K6/2/PI()/K3</f>
+        <v>2.3592490822990715E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>